--- a/data/Community/Internet users/internetaccesspublicationtables2020final1.xlsx
+++ b/data/Community/Internet users/internetaccesspublicationtables2020final1.xlsx
@@ -22378,9 +22378,7 @@
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <TaxCatchAll xmlns="f3dc68d1-c7e7-41c5-bc1e-27f8873ad3d3">
-      <Value>2</Value>
-    </TaxCatchAll>
+    <TaxCatchAll xmlns="f3dc68d1-c7e7-41c5-bc1e-27f8873ad3d3" xsi:nil="true"/>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="36fa22c9-99b0-4d6c-b13f-c2885a394772">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </lcf76f155ced4ddcb4097134ff3c332f>
